--- a/TestCase/Excel/TestCase3.xlsx
+++ b/TestCase/Excel/TestCase3.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
-  <si>
-    <t>列头1(在有“|”这个标志的时候，如果读数据默认只读一行有效数据)</t>
-  </si>
-  <si>
-    <t>列头2</t>
-  </si>
-  <si>
-    <t>列头3</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>列头4</t>
-  </si>
-  <si>
-    <t>列头5(代表只有3行有效数据)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>没什么实际意义，仅做演示用</t>
   </si>
   <si>
     <t>注释2</t>
@@ -46,9 +34,6 @@
     <t>注释5</t>
   </si>
   <si>
-    <t>列头6</t>
-  </si>
-  <si>
     <t>注释6</t>
   </si>
   <si>
@@ -70,40 +55,22 @@
     <t>注释12</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ID2</t>
-  </si>
-  <si>
-    <t>ID3</t>
-  </si>
-  <si>
     <t>TestNest1</t>
   </si>
   <si>
     <t>NestEle2</t>
   </si>
   <si>
+    <t>TestNest2</t>
+  </si>
+  <si>
+    <t>TestNest3</t>
+  </si>
+  <si>
     <t>NestEle3</t>
   </si>
   <si>
-    <t>NestEle4</t>
-  </si>
-  <si>
-    <t>NestEle5</t>
-  </si>
-  <si>
-    <t>ID4</t>
-  </si>
-  <si>
-    <t>ID5</t>
-  </si>
-  <si>
-    <t>TestNest2</t>
-  </si>
-  <si>
-    <t>ID6</t>
+    <t>TestNest4</t>
   </si>
   <si>
     <t>Int</t>
@@ -115,18 +82,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>|3</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -136,13 +91,7 @@
     <t>{2}</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>{3}</t>
-  </si>
-  <si>
-    <t>11037920|11037999|11038000|11038001|11038002</t>
   </si>
 </sst>
 </file>
@@ -150,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -164,16 +113,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +150,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -212,13 +185,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,6 +198,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -255,68 +235,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,43 +286,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,133 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,16 +501,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,11 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,41 +556,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,16 +571,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +615,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,306 +1092,206 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="3" width="12.75" customWidth="1"/>
-    <col min="9" max="11" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="62.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>11037920</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
       <c r="D5" s="2">
-        <v>11037920</v>
-      </c>
-      <c r="E5">
-        <v>11037999</v>
-      </c>
-      <c r="F5">
-        <v>11038000</v>
-      </c>
-      <c r="G5">
-        <v>11038001</v>
-      </c>
-      <c r="H5">
-        <v>11038002</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
       <c r="J5" s="2">
-        <v>11037920</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
@@ -1452,46 +1301,38 @@
       <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>11037999</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6">
-        <v>11037999</v>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
       </c>
       <c r="L6" s="3">
         <v>2</v>
@@ -1502,90 +1343,73 @@
       <c r="N6" s="3">
         <v>2</v>
       </c>
-      <c r="O6" s="3">
-        <v>2</v>
-      </c>
-      <c r="P6"/>
-      <c r="Q6" s="3">
-        <v>2</v>
-      </c>
-      <c r="R6" s="3">
-        <v>2</v>
-      </c>
-      <c r="S6" s="3">
-        <v>2</v>
-      </c>
-      <c r="T6" s="3">
-        <v>2</v>
-      </c>
-      <c r="U6" s="3">
-        <v>2</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>11038000</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
       <c r="J7">
-        <v>11038000</v>
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
       <c r="N7">
         <v>3</v>
       </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>11038001</v>
       </c>
       <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
       <c r="J8">
-        <v>11038001</v>
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
       </c>
       <c r="L8">
         <v>4</v>
@@ -1596,44 +1420,47 @@
       <c r="N8">
         <v>4</v>
       </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <v>4</v>
-      </c>
-      <c r="W8">
-        <v>4</v>
-      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>11038002</v>
       </c>
       <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
       <c r="J9">
-        <v>11038002</v>
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
